--- a/templates/OT_Default.xlsx
+++ b/templates/OT_Default.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\lib\PHPExcel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gpm\www\GPM-TEST\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1940798-7D27-49B8-99A4-9F23D99D671B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F182F3B-DD0D-4CFE-B62A-4E900E242306}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="9645" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">OT!$1:$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">OT!$A$1:$P$28</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>Checker</t>
-  </si>
-  <si>
-    <t>Frequency</t>
   </si>
   <si>
     <t>Material</t>
@@ -124,9 +121,6 @@
     <t>GE</t>
   </si>
   <si>
-    <t>Temperature</t>
-  </si>
-  <si>
     <t>Job Instructions</t>
   </si>
   <si>
@@ -144,12 +138,42 @@
   <si>
     <t>File Number</t>
   </si>
+  <si>
+    <r>
+      <t>Frequency</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF8497B0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Hz)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Temperature</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF8497B0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (°C)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -270,6 +294,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FF8497B0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -351,7 +382,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -444,6 +475,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" textRotation="90"/>
     </xf>
@@ -456,14 +496,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -955,7 +989,7 @@
   <dimension ref="A1:R241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:P28"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -970,7 +1004,7 @@
     <row r="1" spans="1:18" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:18" ht="60.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -983,41 +1017,41 @@
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="12"/>
-      <c r="O2" s="38" t="s">
-        <v>11</v>
+      <c r="O2" s="41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O3" s="38"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="N4" s="15"/>
-      <c r="O4" s="38"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -1046,11 +1080,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="8"/>
-      <c r="O5" s="38"/>
+      <c r="O5" s="41"/>
     </row>
     <row r="6" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="7"/>
@@ -1060,33 +1094,33 @@
       <c r="L6" s="10"/>
       <c r="M6" s="5"/>
       <c r="N6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="38"/>
+        <v>4</v>
+      </c>
+      <c r="O6" s="41"/>
     </row>
     <row r="7" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
+      <c r="A7" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="38"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1105,33 +1139,33 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:18" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="29"/>
-      <c r="C11" s="29" t="s">
-        <v>2</v>
+      <c r="C11" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="29"/>
-      <c r="K11" s="29" t="s">
-        <v>24</v>
+      <c r="K11" s="45" t="s">
+        <v>30</v>
       </c>
       <c r="L11" s="29"/>
       <c r="M11" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N11" s="29"/>
       <c r="O11" s="35" t="s">
@@ -1179,24 +1213,24 @@
     </row>
     <row r="13" spans="1:18" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="37"/>
       <c r="J13" s="31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="34"/>
@@ -1225,22 +1259,22 @@
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
+      <c r="J14" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
     </row>
     <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1260,117 +1294,117 @@
     </row>
     <row r="17" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
     </row>
     <row r="24" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1391,27 +1425,27 @@
     <row r="26" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N27" s="16"/>
       <c r="O27" s="19"/>
@@ -1420,24 +1454,24 @@
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="42"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="26"/>
       <c r="E28" s="27"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="42" t="s">
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="38" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="26"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="N28" s="43"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="39"/>
       <c r="O28" s="26"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="17"/>
